--- a/seed_cropProtection.xlsx
+++ b/seed_cropProtection.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corey\github\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95845B7D-1F83-45D5-A0D0-38ACAD58094C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{529EFD90-D7A6-4603-AA57-F0BAFA13ACE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18860" yWindow="4020" windowWidth="19470" windowHeight="16700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19080" yWindow="9760" windowWidth="19180" windowHeight="10780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -23,10 +23,21 @@
     <sheet name="Launches" sheetId="8" r:id="rId8"/>
     <sheet name="Foreign" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -610,7 +621,7 @@
   <dimension ref="A1:AC8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -719,7 +730,7 @@
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="2" t="s">
         <v>53</v>
       </c>
     </row>
@@ -739,6 +750,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B5" r:id="rId1" xr:uid="{F6D25133-947D-48FE-B47B-966316FE8B41}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/seed_cropProtection.xlsx
+++ b/seed_cropProtection.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corey\github\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{529EFD90-D7A6-4603-AA57-F0BAFA13ACE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B4EB47F-1614-4B89-A667-71491AE550B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19080" yWindow="9760" windowWidth="19180" windowHeight="10780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18540" yWindow="2010" windowWidth="17730" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
   <si>
     <t>Name</t>
   </si>
@@ -215,6 +215,12 @@
   </si>
   <si>
     <t>UPL</t>
+  </si>
+  <si>
+    <t>SYT</t>
+  </si>
+  <si>
+    <t>CTVA</t>
   </si>
 </sst>
 </file>
@@ -621,7 +627,7 @@
   <dimension ref="A1:AC8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -728,10 +734,16 @@
       <c r="B4" s="13" t="s">
         <v>52</v>
       </c>
+      <c r="C4" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B5" s="2" t="s">
         <v>53</v>
+      </c>
+      <c r="C5" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.35">

--- a/seed_cropProtection.xlsx
+++ b/seed_cropProtection.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corey\github\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B4EB47F-1614-4B89-A667-71491AE550B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FBECBF8-E940-4A64-A161-6559466A001F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18540" yWindow="2010" windowWidth="17730" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20880" yWindow="700" windowWidth="16600" windowHeight="19610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
   <si>
     <t>Name</t>
   </si>
@@ -215,9 +215,6 @@
   </si>
   <si>
     <t>UPL</t>
-  </si>
-  <si>
-    <t>SYT</t>
   </si>
   <si>
     <t>CTVA</t>
@@ -309,7 +306,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -339,6 +336,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -627,7 +625,7 @@
   <dimension ref="A1:AC8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -734,16 +732,19 @@
       <c r="B4" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="C4" t="s">
-        <v>57</v>
-      </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B5" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>57</v>
+      </c>
+      <c r="D5">
+        <v>64.28</v>
+      </c>
+      <c r="E5" s="15">
+        <v>44310</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.35">
@@ -774,7 +775,7 @@
   <dimension ref="B2:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/seed_cropProtection.xlsx
+++ b/seed_cropProtection.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corey\github\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FBECBF8-E940-4A64-A161-6559466A001F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EECEE4B6-C763-4AE1-870E-76AF67D0497F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20880" yWindow="700" windowWidth="16600" windowHeight="19610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20780" yWindow="2040" windowWidth="16820" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="65">
   <si>
     <t>Name</t>
   </si>
@@ -218,6 +218,27 @@
   </si>
   <si>
     <t>CTVA</t>
+  </si>
+  <si>
+    <t>AMVAC (American Vanguard)</t>
+  </si>
+  <si>
+    <t>AVD</t>
+  </si>
+  <si>
+    <t>Sharda USA</t>
+  </si>
+  <si>
+    <t>Ginkgo Bioworks</t>
+  </si>
+  <si>
+    <t>DNA</t>
+  </si>
+  <si>
+    <t>Benson Hill</t>
+  </si>
+  <si>
+    <t>BHIL</t>
   </si>
 </sst>
 </file>
@@ -622,10 +643,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC8"/>
+  <dimension ref="A1:AC12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -760,6 +781,35 @@
     <row r="8" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B8" s="14" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="B9" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="B10" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="B11" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="B12" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/seed_cropProtection.xlsx
+++ b/seed_cropProtection.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corey\github\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EECEE4B6-C763-4AE1-870E-76AF67D0497F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3958AB2E-AF17-4BF2-8856-B4B73B89E7A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20780" yWindow="2040" windowWidth="16820" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20330" yWindow="4290" windowWidth="16820" windowHeight="15370" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="68">
   <si>
     <t>Name</t>
   </si>
@@ -239,6 +239,15 @@
   </si>
   <si>
     <t>BHIL</t>
+  </si>
+  <si>
+    <t>NuFarm</t>
+  </si>
+  <si>
+    <t>Get to the bottom of this tweet:</t>
+  </si>
+  <si>
+    <t>https://x.com/Dusty42402999/status/1866120390902473027</t>
   </si>
 </sst>
 </file>
@@ -378,6 +387,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>38353</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>146294</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59606A69-A4C8-9586-5499-AB3AF73C14DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="1104900"/>
+          <a:ext cx="4915153" cy="4750044"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -643,10 +701,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC12"/>
+  <dimension ref="A1:AC17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -812,6 +870,11 @@
         <v>64</v>
       </c>
     </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>65</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B5" r:id="rId1" xr:uid="{F6D25133-947D-48FE-B47B-966316FE8B41}"/>
@@ -822,10 +885,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B6F614C-B05A-4C33-B11C-8055953FF26F}">
-  <dimension ref="B2:B3"/>
+  <dimension ref="B2:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -840,8 +903,22 @@
         <v>50</v>
       </c>
     </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B6" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{B8E7CD72-AF4B-4C24-A5CD-9143D046A0A0}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/seed_cropProtection.xlsx
+++ b/seed_cropProtection.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corey\github\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3958AB2E-AF17-4BF2-8856-B4B73B89E7A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA8F806D-A36E-443B-AD4D-9E300DE77640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20330" yWindow="4290" windowWidth="16820" windowHeight="15370" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1110" yWindow="1780" windowWidth="16310" windowHeight="9030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="69">
   <si>
     <t>Name</t>
   </si>
@@ -248,6 +248,9 @@
   </si>
   <si>
     <t>https://x.com/Dusty42402999/status/1866120390902473027</t>
+  </si>
+  <si>
+    <t>BAYRY</t>
   </si>
 </sst>
 </file>
@@ -703,8 +706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -803,8 +806,17 @@
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="2" t="s">
         <v>51</v>
+      </c>
+      <c r="C3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3">
+        <v>6.71</v>
+      </c>
+      <c r="E3" s="15">
+        <v>26300</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.35">
@@ -878,6 +890,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B5" r:id="rId1" xr:uid="{F6D25133-947D-48FE-B47B-966316FE8B41}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{5F6E45F9-AC8F-4B39-A4CB-C66CEEAA34D4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -887,7 +900,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B6F614C-B05A-4C33-B11C-8055953FF26F}">
   <dimension ref="B2:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
